--- a/Electronic/PCB/CanBus-Radio-VAG-V1.0/ASSEMBLY/CanBus-Radio-VAG-V1.0-BOM.xlsx
+++ b/Electronic/PCB/CanBus-Radio-VAG-V1.0/ASSEMBLY/CanBus-Radio-VAG-V1.0-BOM.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Documents\Proyectos\CanBus-Radio-VAG\Electronic\PCB\CanBus-Radio-VAG-V1.0\ASSEMBLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\OneDrive\Documentos\Proyectos\CanBus-Radio-VAG\Electronic\PCB\CanBus-Radio-VAG-V1.0\ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{CE7B89B5-1E7E-40EB-8B54-59516B2D82BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4107A9F-C32F-41AE-9F8C-1CDE3729CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="504" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanBus-Radio-VAG BOM" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'CanBus-Radio-VAG BOM'!$B$1:$E$25</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'CanBus-Radio-VAG BOM'!$B$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,43 +38,31 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - CanBus-Radio-VAG" description="Conexión a la consulta 'CanBus-Radio-VAG' en el libro." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - CanBus-Radio-VAG" description="Conexión a la consulta 'CanBus-Radio-VAG' en el libro." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=CanBus-Radio-VAG;Extended Properties=&quot;&quot;" command="SELECT * FROM [CanBus-Radio-VAG]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Consulta - CanBus-Radio-VAG (2)" description="Conexión a la consulta 'CanBus-Radio-VAG (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Consulta - CanBus-Radio-VAG (2)" description="Conexión a la consulta 'CanBus-Radio-VAG (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;CanBus-Radio-VAG (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [CanBus-Radio-VAG (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Qnty</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, </t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">C3, C4, </t>
   </si>
   <si>
-    <t xml:space="preserve">C5, </t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">C6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7, </t>
-  </si>
-  <si>
     <t xml:space="preserve">C8, </t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>27pF</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -316,12 +301,18 @@
   </si>
   <si>
     <t>C307912</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
+  </si>
+  <si>
+    <t>C1, C2, C7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +344,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,8 +377,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044002</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BA1D88-FDAB-48A7-9CB2-84A78DE75830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2152650" y="4210051"/>
+          <a:ext cx="6087325" cy="6649378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosExternos_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -404,13 +446,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CanBus_Radio_VAG__2" displayName="CanBus_Radio_VAG__2" ref="B1:E25" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B1:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CanBus_Radio_VAG__2" displayName="CanBus_Radio_VAG__2" ref="B1:E23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:E23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="Columna2" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" uniqueName="2" name="Columna3" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" uniqueName="3" name="Columna1" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="Columna4" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Columna2" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Columna3" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Columna1" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Columna4" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,459 +754,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
